--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/5.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/5.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09098021475769789</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.536036875760213</v>
+        <v>-2.480394443015683</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0814492868153269</v>
+        <v>-0.05732345216115155</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2102099198245948</v>
+        <v>0.1884026415387825</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09620779874612514</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.744047007175794</v>
+        <v>-2.675357584690903</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1282365278884962</v>
+        <v>-0.1123935460540459</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2637411230296713</v>
+        <v>0.2431792657654041</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.104077636399682</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.040226522705169</v>
+        <v>-2.959135451736099</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2355062611275583</v>
+        <v>-0.2023982106181126</v>
       </c>
       <c r="G4" t="n">
-        <v>0.276155911946668</v>
+        <v>0.2581389185048547</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1116532433223352</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.262892616857291</v>
+        <v>-3.17227035195077</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3236435241833528</v>
+        <v>-0.2920583038327249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2921332182054819</v>
+        <v>0.2667400618083978</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1154962387924121</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.310882937557369</v>
+        <v>-3.226749856390891</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.375308785928248</v>
+        <v>-0.3475255308063463</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3228146687878373</v>
+        <v>0.3001795432344797</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1124245152119807</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.096358801584199</v>
+        <v>-3.007206075081178</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4463342853585925</v>
+        <v>-0.4012260995899683</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3223722742162919</v>
+        <v>0.2976054784502077</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1031996308498863</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.740396886948522</v>
+        <v>-2.646469803188229</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.550113043612292</v>
+        <v>-0.5082009031146668</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3001021606856615</v>
+        <v>0.288180868023392</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09170232276804709</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.313230616991364</v>
+        <v>-2.219393326188662</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5496954698582921</v>
+        <v>-0.5111837813643934</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2956271132870264</v>
+        <v>0.2904132815543914</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08285089579469608</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.929769426587467</v>
+        <v>-1.845062546521262</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.632036341993179</v>
+        <v>-0.5776568508472846</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3103385578510224</v>
+        <v>0.3047348932781149</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07827281416096754</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.419962974636786</v>
+        <v>-1.337645463271353</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7714461138574144</v>
+        <v>-0.7213547839545187</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3205880954492015</v>
+        <v>0.3198215702014744</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07461712825733637</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8837807539238387</v>
+        <v>-0.7776936596384126</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9308220433648261</v>
+        <v>-0.892251952947291</v>
       </c>
       <c r="G12" t="n">
-        <v>0.365180884241735</v>
+        <v>0.3676191645535525</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.06410244960145321</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3888624123561534</v>
+        <v>-0.2687997377445493</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.247125401731196</v>
+        <v>-1.189989339789666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3977049155148172</v>
+        <v>0.4034020231655429</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.04039840319611339</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2153726498740479</v>
+        <v>0.328432933841654</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.677890690232444</v>
+        <v>-1.620056725303459</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4966056530967906</v>
+        <v>0.498775284559881</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.833501922805424e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8326707623736095</v>
+        <v>0.9412662192792167</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.07954772996929</v>
+        <v>-2.01535014543608</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5741999088881334</v>
+        <v>0.5863504291006756</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.05522844707117709</v>
       </c>
       <c r="E16" t="n">
-        <v>1.311649758932844</v>
+        <v>1.435857510074538</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.475703308499593</v>
+        <v>-2.397194332579296</v>
       </c>
       <c r="G16" t="n">
-        <v>0.689505746819557</v>
+        <v>0.7084133695968247</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1217501588590468</v>
       </c>
       <c r="E17" t="n">
-        <v>1.862813533106606</v>
+        <v>1.970995796402486</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.832876333026679</v>
+        <v>-2.755197394446064</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8058818000016167</v>
+        <v>0.8217963241925215</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1973588338531158</v>
       </c>
       <c r="E18" t="n">
-        <v>2.275442104222586</v>
+        <v>2.377134453754377</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.165638813521862</v>
+        <v>-3.10436278521856</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9346361408984003</v>
+        <v>0.9587999368029392</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2809987870883588</v>
       </c>
       <c r="E19" t="n">
-        <v>2.72594870296101</v>
+        <v>2.822631627492893</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.435602435554926</v>
+        <v>-3.376677084677988</v>
       </c>
       <c r="G19" t="n">
-        <v>1.107600737987899</v>
+        <v>1.1388851884318</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3710483866093692</v>
       </c>
       <c r="E20" t="n">
-        <v>3.047160743009015</v>
+        <v>3.131224471891174</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.7035650616794</v>
+        <v>-3.647735742779233</v>
       </c>
       <c r="G20" t="n">
-        <v>1.245100766949226</v>
+        <v>1.281378581864034</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4627113174508576</v>
       </c>
       <c r="E21" t="n">
-        <v>3.381501535490471</v>
+        <v>3.477555179295172</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.92802044476693</v>
+        <v>-3.875099541663854</v>
       </c>
       <c r="G21" t="n">
-        <v>1.365205782955466</v>
+        <v>1.400734593199639</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5513049552529375</v>
       </c>
       <c r="E22" t="n">
-        <v>3.700581905325748</v>
+        <v>3.796514365138905</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.093447543587113</v>
+        <v>-4.048192622985352</v>
       </c>
       <c r="G22" t="n">
-        <v>1.429174869962449</v>
+        <v>1.47324934168271</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6305911017594293</v>
       </c>
       <c r="E23" t="n">
-        <v>3.909384842854692</v>
+        <v>3.992884993173761</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.196542269310222</v>
+        <v>-4.165519167474594</v>
       </c>
       <c r="G23" t="n">
-        <v>1.519261297219607</v>
+        <v>1.554687904097416</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6957795783887729</v>
       </c>
       <c r="E24" t="n">
-        <v>4.065322359108015</v>
+        <v>4.154753224772354</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.250519517207071</v>
+        <v>-4.224813910518533</v>
       </c>
       <c r="G24" t="n">
-        <v>1.568888331829594</v>
+        <v>1.606859802529856</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.743046611329419</v>
       </c>
       <c r="E25" t="n">
-        <v>4.168619301491714</v>
+        <v>4.245533174872693</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.274717624241746</v>
+        <v>-4.257457665735069</v>
       </c>
       <c r="G25" t="n">
-        <v>1.582967575570226</v>
+        <v>1.620352106937943</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7724156573668909</v>
       </c>
       <c r="E26" t="n">
-        <v>4.197280045516251</v>
+        <v>4.275442260014958</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.178534036156954</v>
+        <v>-4.178135443028136</v>
       </c>
       <c r="G26" t="n">
-        <v>1.53043358521124</v>
+        <v>1.577328869843137</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7850532779695599</v>
       </c>
       <c r="E27" t="n">
-        <v>4.148647303656174</v>
+        <v>4.23619324723515</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.103431352432747</v>
+        <v>-4.106590166477428</v>
       </c>
       <c r="G27" t="n">
-        <v>1.508237934133246</v>
+        <v>1.550171975352235</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7831285958547636</v>
       </c>
       <c r="E28" t="n">
-        <v>4.103451515002095</v>
+        <v>4.186050815649073</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.934246089826565</v>
+        <v>-3.941355794005245</v>
       </c>
       <c r="G28" t="n">
-        <v>1.410108101943273</v>
+        <v>1.46799462860353</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7687000261716298</v>
       </c>
       <c r="E29" t="n">
-        <v>3.946359100708864</v>
+        <v>4.022772177594662</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.763717582976747</v>
+        <v>-3.771067465066382</v>
       </c>
       <c r="G29" t="n">
-        <v>1.308104762168118</v>
+        <v>1.361272413398559</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7436825245068726</v>
       </c>
       <c r="E30" t="n">
-        <v>3.843145381066347</v>
+        <v>3.919802285983326</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.601255111805155</v>
+        <v>-3.610622050332379</v>
       </c>
       <c r="G30" t="n">
-        <v>1.215152260508507</v>
+        <v>1.272168598506582</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7096373616526407</v>
       </c>
       <c r="E31" t="n">
-        <v>3.691404043026296</v>
+        <v>3.760023383202824</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.447078413549469</v>
+        <v>-3.458208360146465</v>
       </c>
       <c r="G31" t="n">
-        <v>1.114778334402806</v>
+        <v>1.178131281115426</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6678381930262127</v>
       </c>
       <c r="E32" t="n">
-        <v>3.536127928558156</v>
+        <v>3.592484324819141</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.245752382294068</v>
+        <v>-3.275727169600424</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9981803539109286</v>
+        <v>1.057132715677549</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6197381451451976</v>
       </c>
       <c r="E33" t="n">
-        <v>3.354607449655932</v>
+        <v>3.412729044058826</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.099016089109653</v>
+        <v>-3.135860402683734</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9495724328683962</v>
+        <v>1.002356091450928</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5669874372231404</v>
       </c>
       <c r="E34" t="n">
-        <v>3.170266157842073</v>
+        <v>3.205717585537427</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.089035930384247</v>
+        <v>-3.114216649784103</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8548459727783307</v>
+        <v>0.9042028984914994</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5111405902030189</v>
       </c>
       <c r="E35" t="n">
-        <v>2.882779768645968</v>
+        <v>2.894171063851238</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.972938746387551</v>
+        <v>-2.99991459491518</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8061927902449803</v>
+        <v>0.8542006315221491</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4536961854640539</v>
       </c>
       <c r="E36" t="n">
-        <v>2.590597864789501</v>
+        <v>2.615570527336403</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.914687937728611</v>
+        <v>-2.94386407872924</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7442064485454514</v>
+        <v>0.7836233668557135</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3949853376837331</v>
       </c>
       <c r="E37" t="n">
-        <v>2.324620904068663</v>
+        <v>2.345829562637203</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.852220510183128</v>
+        <v>-2.879708835590666</v>
       </c>
       <c r="G37" t="n">
-        <v>0.702971770362008</v>
+        <v>0.7304688560580914</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.335602843261373</v>
       </c>
       <c r="E38" t="n">
-        <v>2.014613273070292</v>
+        <v>2.037267379248831</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.778028896467648</v>
+        <v>-2.806215854886686</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6262316427038467</v>
+        <v>0.6551960767312934</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2750717221569123</v>
       </c>
       <c r="E39" t="n">
-        <v>1.732118788297004</v>
+        <v>1.746240373432273</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.649065768693865</v>
+        <v>-2.682681185914901</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6042900399936708</v>
+        <v>0.6268711437676647</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2147209117142396</v>
       </c>
       <c r="E40" t="n">
-        <v>1.503032862689157</v>
+        <v>1.497186830133158</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.53152459713526</v>
+        <v>-2.566567941389205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5306072530378724</v>
+        <v>0.5547973298080477</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1544215045821168</v>
       </c>
       <c r="E41" t="n">
-        <v>1.250075150794952</v>
+        <v>1.25421730722886</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.417443739552109</v>
+        <v>-2.454373465939508</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4683070009987982</v>
+        <v>0.4897580275504288</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.09576784956511267</v>
       </c>
       <c r="E42" t="n">
-        <v>1.037455647556373</v>
+        <v>1.033256549246919</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.296256097886459</v>
+        <v>-2.335334285039631</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4039378608149064</v>
+        <v>0.4215007793004472</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.03875903358886044</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8365019285641538</v>
+        <v>0.8279591871842471</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.196602705513623</v>
+        <v>-2.232116915276886</v>
       </c>
       <c r="G43" t="n">
-        <v>0.350292773858739</v>
+        <v>0.3628126862382811</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.01642044845917924</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6747519608609246</v>
+        <v>0.6635650723883821</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.132671579757003</v>
+        <v>-2.16921950356863</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2582221412460364</v>
+        <v>0.2709377000697603</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.07037791570207823</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4956040601064273</v>
+        <v>0.484717941540612</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.024068822610942</v>
+        <v>-2.062267330789341</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2263478313734086</v>
+        <v>0.2379975550907691</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1236746705190375</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3243447991871096</v>
+        <v>0.3159977042513846</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.951745340427779</v>
+        <v>-1.989562776054451</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1980389589387799</v>
+        <v>0.2152339453054116</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1765360759819697</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1521700881147922</v>
+        <v>0.1342392375103424</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.88817557657366</v>
+        <v>-1.933995535786602</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1317892768137977</v>
+        <v>0.1427907391787947</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.2288785777545211</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03225487836036985</v>
+        <v>0.0142875265536474</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.8411218767239</v>
+        <v>-1.874581068799209</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1178151565357105</v>
+        <v>0.1295408027537983</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2793277347091359</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1025207008633212</v>
+        <v>-0.1144507538141362</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.762896150133239</v>
+        <v>-1.801987477719229</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0654140305529973</v>
+        <v>0.07817923101181205</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3271425283622942</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.205445330983839</v>
+        <v>-0.2235659878401069</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.739967554913609</v>
+        <v>-1.775097772028963</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0270614873010076</v>
+        <v>0.03960184035382242</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3709477337824265</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3130610956204465</v>
+        <v>-0.3406092829997118</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.684909141405442</v>
+        <v>-1.725168507464158</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0220257814354635</v>
+        <v>0.03614298642645971</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.4106107323594658</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3703446224191584</v>
+        <v>-0.3900100101556077</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.679647128085807</v>
+        <v>-1.720776682806705</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03818368173742942</v>
+        <v>-0.02648577643306893</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.4448731157648807</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.476088605403221</v>
+        <v>-0.4934135360499435</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.6720680184459</v>
+        <v>-1.713469142111707</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03963788963597449</v>
+        <v>-0.03127035402697673</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4735492533266119</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5190651209591185</v>
+        <v>-0.5192943485093912</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.660425594968994</v>
+        <v>-1.69554267165153</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07524846257323765</v>
+        <v>-0.06422363943878606</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4959666672254168</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6439328138379031</v>
+        <v>-0.6407236281340858</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.64542798097918</v>
+        <v>-1.677141685561808</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0970090193201409</v>
+        <v>-0.09181124811650593</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5125485253090317</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7256122841876085</v>
+        <v>-0.7223052752617003</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.611962218687461</v>
+        <v>-1.634388557363819</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1201829026190438</v>
+        <v>-0.1102122342062283</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5232420304032976</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.857165537274664</v>
+        <v>-0.854591472490392</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.649044520100361</v>
+        <v>-1.677549038979171</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1217874954709524</v>
+        <v>-0.1096106943927739</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5284971636247401</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9286538719498266</v>
+        <v>-0.9230750281944645</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.626285290459276</v>
+        <v>-1.642834935569726</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1607123775745783</v>
+        <v>-0.1537494082290348</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5289465546806946</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.043410731799069</v>
+        <v>-1.042433959626251</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.635990230119546</v>
+        <v>-1.652247865611814</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1853915704552081</v>
+        <v>-0.1772503423003012</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5256744885937089</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.085354993354694</v>
+        <v>-1.074007499592151</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.631388158537002</v>
+        <v>-1.654094826446814</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1971799987412049</v>
+        <v>-0.1930831037981151</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5198113716170694</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.169319438966671</v>
+        <v>-1.158668388143492</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.679582885969807</v>
+        <v>-1.691858970318167</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2581749677870067</v>
+        <v>-0.245313404154192</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5122006078278545</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.220434262581294</v>
+        <v>-1.210821305950751</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.683117662397897</v>
+        <v>-1.69120486877344</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3018829674364495</v>
+        <v>-0.2926116620591793</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5036307903268209</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.283334594385731</v>
+        <v>-1.284114260066277</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.730674348814975</v>
+        <v>-1.745461715879698</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3205350817978082</v>
+        <v>-0.3113688998830834</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4945155627180068</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.349143341987259</v>
+        <v>-1.355808461522257</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.760333765733694</v>
+        <v>-1.774029016826418</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3672785214282501</v>
+        <v>-0.3602031283797066</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4856710947365993</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.365528001663437</v>
+        <v>-1.381803157732796</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.846126191555489</v>
+        <v>-1.857805846258713</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3632794497072512</v>
+        <v>-0.3594526636609795</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4776246256060139</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.390810194405612</v>
+        <v>-1.405112825504153</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.961204261984731</v>
+        <v>-1.964760939134185</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3931315929739705</v>
+        <v>-0.3900990730891531</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4709849336236515</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.431078320752874</v>
+        <v>-1.443189419666961</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.031776416482848</v>
+        <v>-2.037629749279302</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3667514440674321</v>
+        <v>-0.3634356748529785</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4659187985504644</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.459299590302048</v>
+        <v>-1.471889584989954</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.147053783476499</v>
+        <v>-2.147337762830181</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4352160191463228</v>
+        <v>-0.4306752695835968</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4615761717252578</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.454277024869322</v>
+        <v>-1.467719687642318</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.29493110424396</v>
+        <v>-2.295666968481778</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4566904064674079</v>
+        <v>-0.4464029076188653</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.457515911620536</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.482299727878132</v>
+        <v>-1.48340498428295</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.424657107145243</v>
+        <v>-2.420969755691653</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4707827906408587</v>
+        <v>-0.4611245725194977</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.452939780746862</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.520244917712759</v>
+        <v>-1.525010514681485</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.596732534947379</v>
+        <v>-2.583578961696382</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5306929439551153</v>
+        <v>-0.5226276383009357</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4479478186519198</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.529618426456393</v>
+        <v>-1.532236292683392</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.695191607981852</v>
+        <v>-2.675532060437767</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5498035134170193</v>
+        <v>-0.5385275620109314</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4425006603213132</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.514115635827124</v>
+        <v>-1.517158376048578</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.821282091136773</v>
+        <v>-2.797584780597279</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5638141348973792</v>
+        <v>-0.5413352344897489</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4366677839987244</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.570099719824927</v>
+        <v>-1.568711214090473</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.961494889451008</v>
+        <v>-2.930476897783698</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5755032799131943</v>
+        <v>-0.5471418457472927</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4302147892983502</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.448378430582051</v>
+        <v>-1.451105800415868</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.026619604521945</v>
+        <v>-2.994761355178317</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6108904654925483</v>
+        <v>-0.5856082727503733</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4229395419043146</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.344828899878624</v>
+        <v>-1.336347480518535</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.090308362295473</v>
+        <v>-3.053626114059483</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6012074265536419</v>
+        <v>-0.5770640713223756</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4140107680597566</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.23410177276029</v>
+        <v>-1.22809221481811</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.169715997815725</v>
+        <v>-3.133001628521735</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5779108992151026</v>
+        <v>-0.5429588079668394</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4021984413098051</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.101687091299598</v>
+        <v>-1.085225049074603</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.232271028246663</v>
+        <v>-3.183781371099494</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5903359084687357</v>
+        <v>-0.5564803133367447</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.386611747651854</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.901190367359834</v>
+        <v>-0.8805321469215669</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.298525820539963</v>
+        <v>-3.250066824402703</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5874260326235546</v>
+        <v>-0.5578308578208353</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3666235495753952</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6933627419556171</v>
+        <v>-0.6676892563250786</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.342130886798997</v>
+        <v>-3.280319020846332</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5527951519552913</v>
+        <v>-0.5161829860276647</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3425008822737258</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4391172676452308</v>
+        <v>-0.4173567108983276</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.391753541264711</v>
+        <v>-3.321687293430093</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5139330519195744</v>
+        <v>-0.4804264082813107</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3140637071445402</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1781190709143919</v>
+        <v>-0.1398234695379476</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.339674355886043</v>
+        <v>-3.2646016031477</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4721566958944038</v>
+        <v>-0.44583202881532</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2821297070627634</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1133576297141663</v>
+        <v>0.1396910570817955</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.338012091134543</v>
+        <v>-3.248875425160522</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4527993783051363</v>
+        <v>-0.4255680213615981</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2471447073485691</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4382533710955335</v>
+        <v>0.4708912861197066</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.286349019461785</v>
+        <v>-3.20020326200199</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4058077304992398</v>
+        <v>-0.3782522428795199</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2097781514667907</v>
       </c>
       <c r="E85" t="n">
-        <v>0.722064819246821</v>
+        <v>0.7411286671698158</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.208829226123078</v>
+        <v>-3.099167934111108</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3635291179307966</v>
+        <v>-0.3371971506112582</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1701766624096211</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9798830312356609</v>
+        <v>1.004903875369563</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.126155463023464</v>
+        <v>-3.002312723904497</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2865101210872718</v>
+        <v>-0.2578245562451886</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1290661077420598</v>
       </c>
       <c r="E87" t="n">
-        <v>1.170508370032791</v>
+        <v>1.194685306370149</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.012419906813812</v>
+        <v>-2.87523232814394</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2515784705122812</v>
+        <v>-0.2243719343862885</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08716454938480085</v>
       </c>
       <c r="E88" t="n">
-        <v>1.340389345554291</v>
+        <v>1.362995270145831</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.780366433461193</v>
+        <v>-2.641658214704639</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2496439067918272</v>
+        <v>-0.2224986926856527</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04591628047072892</v>
       </c>
       <c r="E89" t="n">
-        <v>1.480251732326708</v>
+        <v>1.508198512834792</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.54493294877812</v>
+        <v>-2.405051581380521</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1775598724955738</v>
+        <v>-0.1522309582144897</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.006501025453436332</v>
       </c>
       <c r="E90" t="n">
-        <v>1.608205966869674</v>
+        <v>1.626493069208305</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.261054338414651</v>
+        <v>-2.120615232646325</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1680564194718491</v>
+        <v>-0.1511695032523991</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02919136585875553</v>
       </c>
       <c r="E91" t="n">
-        <v>1.649042051924299</v>
+        <v>1.678409459224837</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.971457449703138</v>
+        <v>-1.83140087653463</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09800039197386791</v>
+        <v>-0.09012489257150638</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0590486996552859</v>
       </c>
       <c r="E92" t="n">
-        <v>1.613641725912127</v>
+        <v>1.652264378060935</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.607828822542099</v>
+        <v>-1.485980509115313</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1097114377110466</v>
+        <v>-0.1028141705295939</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08145314107517342</v>
       </c>
       <c r="E93" t="n">
-        <v>1.644340697071573</v>
+        <v>1.684524140629563</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.265746855082645</v>
+        <v>-1.146285720284496</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1387328136140388</v>
+        <v>-0.1296819754984957</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09556742730608714</v>
       </c>
       <c r="E94" t="n">
-        <v>1.592618493451133</v>
+        <v>1.649176376348663</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.008536023099623</v>
+        <v>-0.9126940862681037</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1422164883589469</v>
+        <v>-0.1311872850802226</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1026844678136454</v>
       </c>
       <c r="E95" t="n">
-        <v>1.584957621118135</v>
+        <v>1.644343617167755</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7045160493220687</v>
+        <v>-0.6277919821929074</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1999716106910223</v>
+        <v>-0.1921442928756608</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1040134983073887</v>
       </c>
       <c r="E96" t="n">
-        <v>1.484258104288162</v>
+        <v>1.557536457922778</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4169405971924186</v>
+        <v>-0.3591241528405251</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2245427600129248</v>
+        <v>-0.2198852066029261</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1021212413870621</v>
       </c>
       <c r="E97" t="n">
-        <v>1.363612870488285</v>
+        <v>1.436143679500357</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2054657716571118</v>
+        <v>-0.1758735169505743</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3303743458824419</v>
+        <v>-0.3187523630788086</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.09768167844129157</v>
       </c>
       <c r="E98" t="n">
-        <v>1.292301201632122</v>
+        <v>1.353596940584651</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04106143652461047</v>
+        <v>-0.01572230190689</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3362481193521676</v>
+        <v>-0.315963671225173</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.09245143431999681</v>
       </c>
       <c r="E99" t="n">
-        <v>1.139317362666709</v>
+        <v>1.209240525788417</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07835297673463019</v>
+        <v>0.09120139993462674</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.348522743652437</v>
+        <v>-0.330388946363351</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.08370593793842025</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9728645800626627</v>
+        <v>1.049892337194733</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1764039663276948</v>
+        <v>0.1731568193735138</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3872315386386084</v>
+        <v>-0.3649789456850689</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.07162474886589276</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8060321849549803</v>
+        <v>0.8981553792989555</v>
       </c>
       <c r="F101" t="n">
-        <v>0.224918444292409</v>
+        <v>0.2237401854830457</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3526926410000722</v>
+        <v>-0.3232974927858074</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04865232612550309</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7044683196551893</v>
+        <v>0.7902636655731663</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2428799559067678</v>
+        <v>0.2438508878872221</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3672142793122501</v>
+        <v>-0.3445236719314381</v>
       </c>
     </row>
   </sheetData>
